--- a/cvreportimages/leaveoneoutresults/Cartel1.xlsx
+++ b/cvreportimages/leaveoneoutresults/Cartel1.xlsx
@@ -16,27 +16,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>tooth out</t>
   </si>
   <si>
-    <t>SEEx/(8*img_widht)</t>
+    <t>MSEx</t>
   </si>
   <si>
-    <t>SEEx/(8*img_height)</t>
+    <t>MSEy</t>
   </si>
   <si>
-    <t>SSEx/8</t>
+    <t>err%x</t>
   </si>
   <si>
-    <t>SSEy/8</t>
-  </si>
-  <si>
-    <t>leng = 4</t>
-  </si>
-  <si>
-    <t>leng = 10</t>
+    <t>err%y</t>
   </si>
 </sst>
 </file>
@@ -46,8 +40,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -75,10 +77,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -380,16 +387,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="8.15625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.15625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.05078125" customWidth="1"/>
     <col min="4" max="4" width="16.47265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="11" width="9.15625" bestFit="1" customWidth="1"/>
@@ -400,27 +408,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
@@ -428,315 +434,565 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>19427.96</v>
-      </c>
-      <c r="C3" s="1">
-        <v>20604.593929999999</v>
-      </c>
-      <c r="D3" s="1">
-        <v>6.4267000000000003</v>
-      </c>
-      <c r="E3" s="1">
-        <v>12.901999999999999</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="B3" s="3">
+        <v>2052.9259999999999</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2255.6869999999999</v>
+      </c>
+      <c r="D3" s="3">
+        <v>80.28</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2.66</v>
+      </c>
+      <c r="F3" s="3">
+        <v>48.79</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3.06</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="3">
+        <f>D3/8</f>
+        <v>10.035</v>
+      </c>
+      <c r="J3" s="3">
+        <f>E3/8</f>
+        <v>0.33250000000000002</v>
+      </c>
+      <c r="K3" s="3">
+        <f>F3/8</f>
+        <v>6.0987499999999999</v>
+      </c>
+      <c r="L3" s="3">
+        <f>G3/8</f>
+        <v>0.38250000000000001</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>20807.038499999999</v>
-      </c>
-      <c r="C4" s="1">
-        <v>20372.184600000001</v>
-      </c>
-      <c r="D4" s="1">
-        <v>6.8829000000000002</v>
-      </c>
-      <c r="E4" s="1">
-        <v>12.7087</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="B4" s="3">
+        <v>309.05399999999997</v>
+      </c>
+      <c r="C4" s="3">
+        <v>392.536</v>
+      </c>
+      <c r="D4" s="3">
+        <v>7.74</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="F4" s="3">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="3">
+        <f t="shared" ref="I4:I16" si="0">D4/8</f>
+        <v>0.96750000000000003</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" ref="J4:J16" si="1">E4/8</f>
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" ref="K4:K16" si="2">F4/8</f>
+        <v>1.1212500000000001</v>
+      </c>
+      <c r="L4" s="3">
+        <f t="shared" ref="L4:L16" si="3">G4/8</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>21082.2909</v>
-      </c>
-      <c r="C5" s="1">
-        <v>21391.077600000001</v>
-      </c>
-      <c r="D5" s="1">
-        <v>7.0651000000000002</v>
-      </c>
-      <c r="E5" s="1">
-        <v>13.369400000000001</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6">
+      <c r="B5" s="6">
+        <v>335.12</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1037.68</v>
+      </c>
+      <c r="D5" s="6">
+        <v>3.59</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="F5" s="6">
+        <v>13.91</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.87</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="6">
+        <f t="shared" si="0"/>
+        <v>0.44874999999999998</v>
+      </c>
+      <c r="J5" s="6">
+        <f t="shared" si="1"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="2"/>
+        <v>1.73875</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="3"/>
+        <v>0.10875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>19811.6109</v>
-      </c>
-      <c r="C6" s="1">
-        <v>19641.532299999999</v>
-      </c>
-      <c r="D6" s="1">
-        <v>6.5536000000000003</v>
-      </c>
-      <c r="E6" s="1">
-        <v>12.2759</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="B6" s="6">
+        <v>259.79000000000002</v>
+      </c>
+      <c r="C6" s="6">
+        <v>409.6</v>
+      </c>
+      <c r="D6" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F6" s="6">
+        <v>6.67</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.42</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" si="1"/>
+        <v>3.6249999999999998E-2</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="shared" si="2"/>
+        <v>0.83374999999999999</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" si="3"/>
+        <v>5.2499999999999998E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>22197.636999999999</v>
-      </c>
-      <c r="C7" s="1">
-        <v>22539.3514</v>
-      </c>
-      <c r="D7" s="1">
-        <v>7.3429000000000002</v>
-      </c>
-      <c r="E7" s="1">
-        <v>14.060700000000001</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8">
+      <c r="B7" s="3">
+        <v>3475.37</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1712.84</v>
+      </c>
+      <c r="D7" s="4">
+        <v>82.44</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2.73</v>
+      </c>
+      <c r="F7" s="3">
+        <v>18.46</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="3">
+        <f t="shared" si="0"/>
+        <v>10.305</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.34125</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="2"/>
+        <v>2.3075000000000001</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="3"/>
+        <v>0.14374999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <v>23205.943299999999</v>
-      </c>
-      <c r="C8" s="1">
-        <v>23632.8894</v>
-      </c>
-      <c r="D8" s="1">
-        <v>7.6764000000000001</v>
-      </c>
-      <c r="E8" s="1">
-        <v>14.7705</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9">
+      <c r="B8" s="6">
+        <v>3042.8</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1004.48</v>
+      </c>
+      <c r="D8" s="6">
+        <v>62.08</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F8" s="6">
+        <v>33.4</v>
+      </c>
+      <c r="G8" s="6">
+        <v>2.09</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="6">
+        <f t="shared" si="0"/>
+        <v>7.76</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="1"/>
+        <v>0.25624999999999998</v>
+      </c>
+      <c r="K8" s="6">
+        <f t="shared" si="2"/>
+        <v>4.1749999999999998</v>
+      </c>
+      <c r="L8" s="6">
+        <f t="shared" si="3"/>
+        <v>0.26124999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>20709.049599999998</v>
-      </c>
-      <c r="C9" s="1">
-        <v>21127.989799999999</v>
-      </c>
-      <c r="D9" s="1">
-        <v>6.8503999999999996</v>
-      </c>
-      <c r="E9" s="1">
-        <v>13.2049</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10">
+      <c r="B9" s="6">
+        <v>244.44</v>
+      </c>
+      <c r="C9" s="6">
+        <v>405.18</v>
+      </c>
+      <c r="D9" s="6">
+        <v>21.64</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.72</v>
+      </c>
+      <c r="F9" s="6">
+        <v>3.93</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="6">
+        <f t="shared" si="0"/>
+        <v>2.7050000000000001</v>
+      </c>
+      <c r="J9" s="6">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="K9" s="6">
+        <f t="shared" si="2"/>
+        <v>0.49125000000000002</v>
+      </c>
+      <c r="L9" s="6">
+        <f t="shared" si="3"/>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
-        <v>23720.345799999999</v>
-      </c>
-      <c r="C10" s="1">
-        <v>24044.3606</v>
-      </c>
-      <c r="D10" s="1">
-        <v>7.8465999999999996</v>
-      </c>
-      <c r="E10" s="1">
-        <v>15.02772</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11">
+      <c r="B10" s="6">
+        <v>286.43</v>
+      </c>
+      <c r="C10" s="6">
+        <v>10644.19</v>
+      </c>
+      <c r="D10" s="6">
+        <v>5.7</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="F10" s="6">
+        <v>84.68</v>
+      </c>
+      <c r="G10" s="6">
+        <v>5.29</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="6">
+        <f t="shared" si="0"/>
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" si="1"/>
+        <v>2.375E-2</v>
+      </c>
+      <c r="K10" s="6">
+        <f t="shared" si="2"/>
+        <v>10.585000000000001</v>
+      </c>
+      <c r="L10" s="6">
+        <f t="shared" si="3"/>
+        <v>0.66125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>19120.433300000001</v>
-      </c>
-      <c r="C11" s="1">
-        <v>21000.215800000002</v>
-      </c>
-      <c r="D11" s="1">
-        <v>6.3249000000000004</v>
-      </c>
-      <c r="E11" s="1">
-        <v>13.149699999999999</v>
-      </c>
-      <c r="F11" s="1">
-        <v>19113.8554</v>
-      </c>
-      <c r="G11" s="1">
-        <v>21003.129440000001</v>
-      </c>
-      <c r="H11" s="1">
-        <v>6.3228</v>
-      </c>
-      <c r="I11" s="1">
-        <v>13.1516</v>
-      </c>
-      <c r="J11" s="1">
-        <v>19131.242900000001</v>
-      </c>
-      <c r="K11" s="1">
-        <v>20994.164499999999</v>
-      </c>
-      <c r="L11" s="1">
-        <v>6.3285</v>
-      </c>
-      <c r="M11" s="1">
-        <v>13.146000000000001</v>
-      </c>
+      <c r="B11" s="6">
+        <v>4164.5600000000004</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1980.69</v>
+      </c>
+      <c r="D11" s="6">
+        <v>90.79</v>
+      </c>
+      <c r="E11" s="6">
+        <v>3</v>
+      </c>
+      <c r="F11" s="6">
+        <v>20.11</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1.26</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="6">
+        <f t="shared" si="0"/>
+        <v>11.348750000000001</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="1"/>
+        <v>0.375</v>
+      </c>
+      <c r="K11" s="6">
+        <f t="shared" si="2"/>
+        <v>2.5137499999999999</v>
+      </c>
+      <c r="L11" s="6">
+        <f t="shared" si="3"/>
+        <v>0.1575</v>
+      </c>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
-        <v>22291.024300000001</v>
-      </c>
-      <c r="C12" s="1">
-        <v>24003.5314</v>
-      </c>
-      <c r="D12" s="1">
-        <v>7.3738000000000001</v>
-      </c>
-      <c r="E12" s="1">
-        <v>15.0022</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="B12" s="3">
+        <v>4063.35</v>
+      </c>
+      <c r="C12" s="3">
+        <v>206.04</v>
+      </c>
+      <c r="D12" s="4">
+        <v>6.17</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3.07</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.19</v>
+      </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.77124999999999999</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="2"/>
+        <v>0.38374999999999998</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="3"/>
+        <v>2.375E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
-        <v>18345.400600000001</v>
-      </c>
-      <c r="C13" s="1">
-        <v>20108.3308</v>
-      </c>
-      <c r="D13" s="1">
-        <v>6.0686</v>
-      </c>
-      <c r="E13" s="1">
-        <v>12.5677</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="B13" s="3">
+        <v>2155.4699999999998</v>
+      </c>
+      <c r="C13" s="3">
+        <v>512.22</v>
+      </c>
+      <c r="D13" s="4">
+        <v>17.53</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F13" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1.17</v>
+      </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="I13" s="3">
+        <f t="shared" si="0"/>
+        <v>2.1912500000000001</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="1"/>
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="2"/>
+        <v>2.335</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="3"/>
+        <v>0.14624999999999999</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
-        <v>23548.179800000002</v>
-      </c>
-      <c r="C14" s="1">
-        <v>21929.835800000001</v>
-      </c>
-      <c r="D14" s="1">
-        <v>7.7896700000000001</v>
-      </c>
-      <c r="E14" s="1">
-        <v>13.706099999999999</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="B14" s="3">
+        <v>2956.24</v>
+      </c>
+      <c r="C14" s="3">
+        <v>4429.92</v>
+      </c>
+      <c r="D14" s="4">
+        <v>86.79</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2.87</v>
+      </c>
+      <c r="F14" s="3">
+        <v>61.88</v>
+      </c>
+      <c r="G14" s="3">
+        <v>3.87</v>
+      </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="I14" s="3">
+        <f t="shared" si="0"/>
+        <v>10.848750000000001</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="1"/>
+        <v>0.35875000000000001</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="2"/>
+        <v>7.7350000000000003</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="3"/>
+        <v>0.48375000000000001</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
-        <v>25157.826499999999</v>
-      </c>
-      <c r="C15" s="1">
-        <v>24732.388999999999</v>
-      </c>
-      <c r="D15" s="1">
-        <v>8.3221000000000007</v>
-      </c>
-      <c r="E15" s="1">
-        <v>15.457700000000001</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="B15" s="3">
+        <v>186.61</v>
+      </c>
+      <c r="C15" s="3">
+        <v>205.67</v>
+      </c>
+      <c r="D15" s="3">
+        <v>14.81</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="F15" s="3">
+        <v>17.940000000000001</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1.1200000000000001</v>
+      </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="I15" s="3">
+        <f t="shared" si="0"/>
+        <v>1.8512500000000001</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="1"/>
+        <v>6.1249999999999999E-2</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="2"/>
+        <v>2.2425000000000002</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="3"/>
+        <v>0.14000000000000001</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
-        <v>18487.591499999999</v>
-      </c>
-      <c r="C16" s="1">
-        <v>19147.999899999999</v>
-      </c>
-      <c r="D16" s="1">
-        <v>6.1155999999999997</v>
-      </c>
-      <c r="E16" s="1">
-        <v>11.9451</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="B16" s="3">
+        <v>150.68</v>
+      </c>
+      <c r="C16" s="3">
+        <v>425.43</v>
+      </c>
+      <c r="D16" s="3">
+        <v>5.65</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="F16" s="3">
+        <v>10.42</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.65</v>
+      </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="I16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.70625000000000004</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="1"/>
+        <v>2.375E-2</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="2"/>
+        <v>1.3025</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="3"/>
+        <v>8.1250000000000003E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E21" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:A16">
